--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H625"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17765,6 +17765,222 @@
         <v>372.62</v>
       </c>
       <c r="H625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>369.7644444444445</v>
+      </c>
+      <c r="C626" t="n">
+        <v>370.6233333333333</v>
+      </c>
+      <c r="D626" t="n">
+        <v>367.7466666666666</v>
+      </c>
+      <c r="E626" t="n">
+        <v>369.2563636363636</v>
+      </c>
+      <c r="F626" t="n">
+        <v>364.25</v>
+      </c>
+      <c r="G626" t="n">
+        <v>364.6963636363636</v>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>371.1444444444445</v>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>364.0455555555556</v>
+      </c>
+      <c r="C628" t="n">
+        <v>360.9866666666667</v>
+      </c>
+      <c r="D628" t="n">
+        <v>360.4633333333333</v>
+      </c>
+      <c r="E628" t="n">
+        <v>366.4372727272727</v>
+      </c>
+      <c r="F628" t="n">
+        <v>359.13</v>
+      </c>
+      <c r="G628" t="n">
+        <v>366.5772727272728</v>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>370.5444444444445</v>
+      </c>
+      <c r="C629" t="n">
+        <v>373.2233333333333</v>
+      </c>
+      <c r="D629" t="n">
+        <v>371.8166666666667</v>
+      </c>
+      <c r="E629" t="n">
+        <v>376.2127272727273</v>
+      </c>
+      <c r="F629" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="G629" t="n">
+        <v>382.2427272727273</v>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>361.1888888888889</v>
+      </c>
+      <c r="C630" t="n">
+        <v>358.0066666666667</v>
+      </c>
+      <c r="D630" t="n">
+        <v>357.5733333333333</v>
+      </c>
+      <c r="E630" t="n">
+        <v>358.430909090909</v>
+      </c>
+      <c r="F630" t="n">
+        <v>365.47</v>
+      </c>
+      <c r="G630" t="n">
+        <v>360.5309090909091</v>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>358.9344444444445</v>
+      </c>
+      <c r="C631" t="n">
+        <v>353.1133333333333</v>
+      </c>
+      <c r="D631" t="n">
+        <v>350.7966666666667</v>
+      </c>
+      <c r="E631" t="n">
+        <v>355.0727272727273</v>
+      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>374.8355555555555</v>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>361.5244444444445</v>
+      </c>
+      <c r="C633" t="n">
+        <v>360.3533333333334</v>
+      </c>
+      <c r="D633" t="n">
+        <v>359.1066666666667</v>
+      </c>
+      <c r="E633" t="n">
+        <v>365.6054545454546</v>
+      </c>
+      <c r="F633" t="n">
+        <v>365.14</v>
+      </c>
+      <c r="G633" t="n">
+        <v>369.2254545454546</v>
+      </c>
+      <c r="H633" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17781,7 +17997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B649"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24279,6 +24495,86 @@
       </c>
       <c r="B649" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -24447,28 +24743,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01978505043211533</v>
+        <v>0.00952584772734822</v>
       </c>
       <c r="J2" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K2" t="n">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003006201291869681</v>
+        <v>7.126540975399553e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.083649979747264</v>
+        <v>6.071345278602285</v>
       </c>
       <c r="N2" t="n">
-        <v>70.16506705513201</v>
+        <v>69.70744443323527</v>
       </c>
       <c r="O2" t="n">
-        <v>8.376459100069194</v>
+        <v>8.349098420382603</v>
       </c>
       <c r="P2" t="n">
-        <v>369.4722288696414</v>
+        <v>369.5724590460434</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -24524,28 +24820,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01623390662634036</v>
+        <v>0.0001126661096949758</v>
       </c>
       <c r="J3" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K3" t="n">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001764154701109355</v>
+        <v>8.584437050096483e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>6.718463477738206</v>
+        <v>6.735939984549378</v>
       </c>
       <c r="N3" t="n">
-        <v>79.58375710091448</v>
+        <v>79.79122804960852</v>
       </c>
       <c r="O3" t="n">
-        <v>8.920972878611082</v>
+        <v>8.932593579112872</v>
       </c>
       <c r="P3" t="n">
-        <v>369.3561183447089</v>
+        <v>369.5136888023057</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -24601,28 +24897,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03901536528755891</v>
+        <v>-0.05502617193781366</v>
       </c>
       <c r="J4" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K4" t="n">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001256598414911214</v>
+        <v>0.002513545995505684</v>
       </c>
       <c r="M4" t="n">
-        <v>6.061877655154258</v>
+        <v>6.088032166709779</v>
       </c>
       <c r="N4" t="n">
-        <v>64.59152522976024</v>
+        <v>64.94627811986624</v>
       </c>
       <c r="O4" t="n">
-        <v>8.036885294052681</v>
+        <v>8.058925370039496</v>
       </c>
       <c r="P4" t="n">
-        <v>369.2754965230712</v>
+        <v>369.4324112944388</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24678,28 +24974,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04160306780297492</v>
+        <v>0.03411492891753157</v>
       </c>
       <c r="J5" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K5" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001701548151152643</v>
+        <v>0.001157964833195635</v>
       </c>
       <c r="M5" t="n">
-        <v>5.478637750122127</v>
+        <v>5.487867402359468</v>
       </c>
       <c r="N5" t="n">
-        <v>55.00303682342562</v>
+        <v>55.04340305546342</v>
       </c>
       <c r="O5" t="n">
-        <v>7.416403226863115</v>
+        <v>7.419124143419048</v>
       </c>
       <c r="P5" t="n">
-        <v>367.3979904750616</v>
+        <v>367.4708586246412</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24755,28 +25051,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04500292575643509</v>
+        <v>0.03654402422885566</v>
       </c>
       <c r="J6" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K6" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001737518128008819</v>
+        <v>0.001159120825382498</v>
       </c>
       <c r="M6" t="n">
-        <v>5.964799747007683</v>
+        <v>5.975767839530055</v>
       </c>
       <c r="N6" t="n">
-        <v>61.31959110067052</v>
+        <v>61.23964679575962</v>
       </c>
       <c r="O6" t="n">
-        <v>7.830682671432327</v>
+        <v>7.825576451339519</v>
       </c>
       <c r="P6" t="n">
-        <v>369.5288270475565</v>
+        <v>369.6128570912782</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24832,28 +25128,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09763415501837057</v>
+        <v>0.08749265406294227</v>
       </c>
       <c r="J7" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="K7" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007913960397900599</v>
+        <v>0.006407304689183602</v>
       </c>
       <c r="M7" t="n">
-        <v>6.002177548906735</v>
+        <v>6.023739319049175</v>
       </c>
       <c r="N7" t="n">
-        <v>63.65803328452174</v>
+        <v>63.84874933535848</v>
       </c>
       <c r="O7" t="n">
-        <v>7.978598453645962</v>
+        <v>7.990541241703123</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6522352840478</v>
+        <v>371.7523221177885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24890,7 +25186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H625"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48292,6 +48588,294 @@
         </is>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.67137352752611,174.7474716998445</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.67207431716989,174.74733966300252</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.67278140179393,174.74729759982597</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.67348340691106,174.7474582650894</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.674197498889306,174.74757094335703</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.67489227640693,174.74780046714164</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.67137535597051,174.74748697102282</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.671365950207615,174.74740841421962</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.67206802592999,174.7472321337282</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.67278719537821,174.74721643306123</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.67348813895755,174.74742727715977</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.67420813584293,174.74751520336733</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.67488783590978,174.747820776158</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.67137456099493,174.74748033138002</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.672076014547535,174.74736867470804</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.67277816425671,174.74734295662506</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.67347173012115,174.74753473061122</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.67417163353347,174.7477064829121</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.674850852381226,174.74798992297838</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.6713621652161,174.7473768021504</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.67206608043515,174.74719888185572</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.67278949423599,174.74718422638216</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.67350157817029,174.74733926981824</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.67419496429891,174.747584225149</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.67490211030389,174.7477554908579</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-36.671359178143696,174.74735185431555</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-36.6720628857992,174.74714428034983</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-36.672794884718606,174.74710870598278</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-36.6735072150822,174.7473023560898</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-36.67138024653429,174.74752781712442</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr"/>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-36.671362609816875,174.74738051543105</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-36.67206761245872,174.74722506677531</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-36.67278827454321,174.7472013141245</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-36.67348953522256,174.74741813367118</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>-36.67419564988499,174.74758063253324</t>
+        </is>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-36.674881584010244,174.74784936975684</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -24588,7 +24588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24679,35 +24679,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24766,27 +24771,28 @@
       <c r="P2" t="n">
         <v>369.5724590460434</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.7433798833966 -36.670883533224675, 174.75357302741543 -36.67210388624761)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7433798833966</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.67088353322467</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7535730274154</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.67210388624761</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.748476455406</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.67149370973614</v>
       </c>
     </row>
@@ -24843,27 +24849,28 @@
       <c r="P3" t="n">
         <v>369.5136888023057</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.74320412887437 -36.67183228763671, 174.75348248875972 -36.67243355349016)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.7432041288744</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.67183228763671</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.7534824887597</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.67243355349016</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.748343308817</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.67213292056343</v>
       </c>
     </row>
@@ -24920,27 +24927,28 @@
       <c r="P4" t="n">
         <v>369.4324112944388</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.7431993474114 -36.67307385998442, 174.75346457538606 -36.672341046675136)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7431993474114</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.67307385998442</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7534645753861</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.67234104667514</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7483319613987</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.67270745332978</v>
       </c>
     </row>
@@ -24997,27 +25005,28 @@
       <c r="P5" t="n">
         <v>367.4708586246412</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.7433993009227 -36.6741031623728, 174.7535240643608 -36.67255695665072)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7433993009227</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.6741031623728</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7535240643608</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.67255695665072</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7484616826417</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.67333005951176</v>
       </c>
     </row>
@@ -25074,27 +25083,28 @@
       <c r="P6" t="n">
         <v>369.6128570912782</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.7436054159618 -36.67495417503091, 174.7536327300541 -36.6730405460974)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7436054159618</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.67495417503091</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7536327300541</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.6730405460974</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7486190730079</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.67399736056416</v>
       </c>
     </row>
@@ -25151,27 +25161,28 @@
       <c r="P7" t="n">
         <v>371.7523221177885</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.74386263085148 -36.6757531963199, 174.75380745948317 -36.673578695995644)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7438626308515</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.6757531963199</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7538074594832</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.67357869599564</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.7488350451673</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.67466594615777</v>
       </c>
     </row>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H633"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17983,6 +17983,126 @@
       <c r="H633" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>376.2966666666667</v>
+      </c>
+      <c r="C634" t="n">
+        <v>371.01</v>
+      </c>
+      <c r="D634" t="n">
+        <v>371.34</v>
+      </c>
+      <c r="E634" t="n">
+        <v>372.8663636363637</v>
+      </c>
+      <c r="F634" t="n">
+        <v>377.3</v>
+      </c>
+      <c r="G634" t="n">
+        <v>377.8363636363636</v>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>371.7566666666667</v>
+      </c>
+      <c r="C635" t="n">
+        <v>374</v>
+      </c>
+      <c r="D635" t="n">
+        <v>375.21</v>
+      </c>
+      <c r="E635" t="n">
+        <v>368.6518181818182</v>
+      </c>
+      <c r="F635" t="n">
+        <v>381.08</v>
+      </c>
+      <c r="G635" t="n">
+        <v>384.7418181818182</v>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>362.4177777777778</v>
+      </c>
+      <c r="C636" t="n">
+        <v>360.9633333333333</v>
+      </c>
+      <c r="D636" t="n">
+        <v>363.9966666666666</v>
+      </c>
+      <c r="E636" t="n">
+        <v>368.7536363636364</v>
+      </c>
+      <c r="F636" t="n">
+        <v>371.18</v>
+      </c>
+      <c r="G636" t="n">
+        <v>374.5936363636364</v>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>361.9933333333333</v>
+      </c>
+      <c r="C637" t="n">
+        <v>361.77</v>
+      </c>
+      <c r="D637" t="n">
+        <v>361.07</v>
+      </c>
+      <c r="E637" t="n">
+        <v>361.2818181818182</v>
+      </c>
+      <c r="F637" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="G637" t="n">
+        <v>370.2018181818182</v>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17997,7 +18117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24575,6 +24695,56 @@
       </c>
       <c r="B657" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -24748,28 +24918,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00952584772734822</v>
+        <v>0.006990886118027787</v>
       </c>
       <c r="J2" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K2" t="n">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L2" t="n">
-        <v>7.126540975399553e-05</v>
+        <v>3.880961531277372e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.071345278602285</v>
+        <v>6.070781870135722</v>
       </c>
       <c r="N2" t="n">
-        <v>69.70744443323527</v>
+        <v>69.48039781191692</v>
       </c>
       <c r="O2" t="n">
-        <v>8.349098420382603</v>
+        <v>8.335490256242695</v>
       </c>
       <c r="P2" t="n">
-        <v>369.5724590460434</v>
+        <v>369.5976749901827</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24826,28 +24996,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001126661096949758</v>
+        <v>-0.003821994289466841</v>
       </c>
       <c r="J3" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K3" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L3" t="n">
-        <v>8.584437050096483e-09</v>
+        <v>1.000262063488577e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.735939984549378</v>
+        <v>6.726167600644232</v>
       </c>
       <c r="N3" t="n">
-        <v>79.79122804960852</v>
+        <v>79.47218572211786</v>
       </c>
       <c r="O3" t="n">
-        <v>8.932593579112872</v>
+        <v>8.91471736636209</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5136888023057</v>
+        <v>369.55263276478</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24904,28 +25074,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05502617193781366</v>
+        <v>-0.0552407430160276</v>
       </c>
       <c r="J4" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K4" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002513545995505684</v>
+        <v>0.002564252840024817</v>
       </c>
       <c r="M4" t="n">
-        <v>6.088032166709779</v>
+        <v>6.082441997363712</v>
       </c>
       <c r="N4" t="n">
-        <v>64.94627811986624</v>
+        <v>64.68765176003595</v>
       </c>
       <c r="O4" t="n">
-        <v>8.058925370039496</v>
+        <v>8.042863405531387</v>
       </c>
       <c r="P4" t="n">
-        <v>369.4324112944388</v>
+        <v>369.4347019044886</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24982,28 +25152,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03411492891753157</v>
+        <v>0.03340567257055071</v>
       </c>
       <c r="J5" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K5" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001157964833195635</v>
+        <v>0.001125486798812414</v>
       </c>
       <c r="M5" t="n">
-        <v>5.487867402359468</v>
+        <v>5.469015927147092</v>
       </c>
       <c r="N5" t="n">
-        <v>55.04340305546342</v>
+        <v>54.74841460188063</v>
       </c>
       <c r="O5" t="n">
-        <v>7.419124143419048</v>
+        <v>7.399217161421918</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4708586246412</v>
+        <v>367.4779407441753</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25060,28 +25230,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03654402422885566</v>
+        <v>0.04162983339478173</v>
       </c>
       <c r="J6" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K6" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001159120825382498</v>
+        <v>0.001519060230701919</v>
       </c>
       <c r="M6" t="n">
-        <v>5.975767839530055</v>
+        <v>5.971109288809052</v>
       </c>
       <c r="N6" t="n">
-        <v>61.23964679575962</v>
+        <v>61.10152951266775</v>
       </c>
       <c r="O6" t="n">
-        <v>7.825576451339519</v>
+        <v>7.816746734586438</v>
       </c>
       <c r="P6" t="n">
-        <v>369.6128570912782</v>
+        <v>369.5619595545326</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25138,28 +25308,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08749265406294227</v>
+        <v>0.09168340312304278</v>
       </c>
       <c r="J7" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="K7" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006407304689183602</v>
+        <v>0.007110000117858117</v>
       </c>
       <c r="M7" t="n">
-        <v>6.023739319049175</v>
+        <v>6.015631117711632</v>
       </c>
       <c r="N7" t="n">
-        <v>63.84874933535848</v>
+        <v>63.63502392728596</v>
       </c>
       <c r="O7" t="n">
-        <v>7.990541241703123</v>
+        <v>7.977156381022373</v>
       </c>
       <c r="P7" t="n">
-        <v>371.7523221177885</v>
+        <v>371.710649387809</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25197,7 +25367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H633"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48887,6 +49057,174 @@
         </is>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-36.67138218243989,174.74754398588658</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-36.67207456960086,174.7473439775638</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-36.67277854342862,174.74733764456775</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-36.67347734725522,174.7474979468211</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-36.67417038700645,174.7477130149364</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-36.67486125509562,174.74794234554452</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-36.671376167139655,174.74749374591772</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-36.672076521583335,174.74737734102538</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-36.672775464970115,174.74738077252783</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-36.67348442168468,174.74745161982267</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-36.67416253387815,174.7477541666844</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-36.674844952422035,174.7480169067491</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-36.67136379345543,174.74739040111876</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-36.67206801069685,174.74723187336676</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-36.67278438476753,174.7472558091594</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-36.67348425077547,174.7474527390255</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-36.674183101565426,174.74764638827793</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-36.67486891064016,174.74790733239234</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-36.67136323108,174.7473857041875</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-36.672068537328094,174.74724087443312</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-36.67278671280257,174.74722319386325</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-36.67349679273753,174.7473706075106</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-36.67419307374283,174.74759413205885</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-36.674879278982765,174.7478599119887</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18103,6 +18103,184 @@
       <c r="H637" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="n">
+        <v>398.1233333333333</v>
+      </c>
+      <c r="D638" t="n">
+        <v>356.9366666666667</v>
+      </c>
+      <c r="E638" t="n">
+        <v>359.9545454545454</v>
+      </c>
+      <c r="F638" t="n">
+        <v>359.14</v>
+      </c>
+      <c r="G638" t="n">
+        <v>359.4945454545455</v>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>364.3855555555555</v>
+      </c>
+      <c r="C639" t="n">
+        <v>371.7566666666667</v>
+      </c>
+      <c r="D639" t="n">
+        <v>369.3333333333333</v>
+      </c>
+      <c r="E639" t="n">
+        <v>369.710909090909</v>
+      </c>
+      <c r="F639" t="n">
+        <v>379.24</v>
+      </c>
+      <c r="G639" t="n">
+        <v>374.110909090909</v>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>371.7677777777778</v>
+      </c>
+      <c r="C640" t="n">
+        <v>367.3833333333333</v>
+      </c>
+      <c r="D640" t="n">
+        <v>366.3166666666667</v>
+      </c>
+      <c r="E640" t="n">
+        <v>362.2254545454546</v>
+      </c>
+      <c r="F640" t="n">
+        <v>365</v>
+      </c>
+      <c r="G640" t="n">
+        <v>364.4654545454546</v>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>365.9422222222223</v>
+      </c>
+      <c r="C641" t="n">
+        <v>367.3066666666667</v>
+      </c>
+      <c r="D641" t="n">
+        <v>369.5733333333333</v>
+      </c>
+      <c r="E641" t="n">
+        <v>366.7990909090909</v>
+      </c>
+      <c r="F641" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="G641" t="n">
+        <v>381.3590909090909</v>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>375.32</v>
+      </c>
+      <c r="C642" t="n">
+        <v>368.16</v>
+      </c>
+      <c r="D642" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="E642" t="n">
+        <v>369.1718181818182</v>
+      </c>
+      <c r="F642" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="G642" t="n">
+        <v>374.7318181818182</v>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>366.3944444444445</v>
+      </c>
+      <c r="C643" t="n">
+        <v>368.0433333333334</v>
+      </c>
+      <c r="D643" t="n">
+        <v>365.7966666666667</v>
+      </c>
+      <c r="E643" t="n">
+        <v>366.1272727272727</v>
+      </c>
+      <c r="F643" t="n">
+        <v>367.4500000000001</v>
+      </c>
+      <c r="G643" t="n">
+        <v>389.5572727272727</v>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18117,7 +18295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B662"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24745,6 +24923,66 @@
       </c>
       <c r="B662" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -24918,28 +25156,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006990886118027787</v>
+        <v>0.00516354512280057</v>
       </c>
       <c r="J2" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K2" t="n">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L2" t="n">
-        <v>3.880961531277372e-05</v>
+        <v>2.153066340460086e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.070781870135722</v>
+        <v>6.051741745659523</v>
       </c>
       <c r="N2" t="n">
-        <v>69.48039781191692</v>
+        <v>68.98683103454179</v>
       </c>
       <c r="O2" t="n">
-        <v>8.335490256242695</v>
+        <v>8.305831146522412</v>
       </c>
       <c r="P2" t="n">
-        <v>369.5976749901827</v>
+        <v>369.6157918596093</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24996,28 +25234,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.003821994289466841</v>
+        <v>0.00501138730711504</v>
       </c>
       <c r="J3" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K3" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L3" t="n">
-        <v>1.000262063488577e-05</v>
+        <v>1.726212905972524e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.726167600644232</v>
+        <v>6.723676224405296</v>
       </c>
       <c r="N3" t="n">
-        <v>79.47218572211786</v>
+        <v>80.1623704037396</v>
       </c>
       <c r="O3" t="n">
-        <v>8.91471736636209</v>
+        <v>8.953344090547375</v>
       </c>
       <c r="P3" t="n">
-        <v>369.55263276478</v>
+        <v>369.4652678037262</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25074,28 +25312,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0552407430160276</v>
+        <v>-0.05904384421385874</v>
       </c>
       <c r="J4" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K4" t="n">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002564252840024817</v>
+        <v>0.002986343769826427</v>
       </c>
       <c r="M4" t="n">
-        <v>6.082441997363712</v>
+        <v>6.050288693507957</v>
       </c>
       <c r="N4" t="n">
-        <v>64.68765176003595</v>
+        <v>64.20401470351855</v>
       </c>
       <c r="O4" t="n">
-        <v>8.042863405531387</v>
+        <v>8.012740773513052</v>
       </c>
       <c r="P4" t="n">
-        <v>369.4347019044886</v>
+        <v>369.4724543985351</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25152,28 +25390,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03340567257055071</v>
+        <v>0.02752944818393281</v>
       </c>
       <c r="J5" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K5" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001125486798812414</v>
+        <v>0.0007797593476749354</v>
       </c>
       <c r="M5" t="n">
-        <v>5.469015927147092</v>
+        <v>5.446380427333462</v>
       </c>
       <c r="N5" t="n">
-        <v>54.74841460188063</v>
+        <v>54.3340691948046</v>
       </c>
       <c r="O5" t="n">
-        <v>7.399217161421918</v>
+        <v>7.371164710871994</v>
       </c>
       <c r="P5" t="n">
-        <v>367.4779407441753</v>
+        <v>367.5358442524774</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25230,28 +25468,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04162983339478173</v>
+        <v>0.04005094747306201</v>
       </c>
       <c r="J6" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K6" t="n">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001519060230701919</v>
+        <v>0.001426581090010259</v>
       </c>
       <c r="M6" t="n">
-        <v>5.971109288809052</v>
+        <v>5.972266597778875</v>
       </c>
       <c r="N6" t="n">
-        <v>61.10152951266775</v>
+        <v>60.93520385562301</v>
       </c>
       <c r="O6" t="n">
-        <v>7.816746734586438</v>
+        <v>7.806100425668569</v>
       </c>
       <c r="P6" t="n">
-        <v>369.5619595545326</v>
+        <v>369.5778624298165</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25308,28 +25546,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09168340312304278</v>
+        <v>0.0914858382320126</v>
       </c>
       <c r="J7" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K7" t="n">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007110000117858117</v>
+        <v>0.007115717171214175</v>
       </c>
       <c r="M7" t="n">
-        <v>6.015631117711632</v>
+        <v>6.037573943316982</v>
       </c>
       <c r="N7" t="n">
-        <v>63.63502392728596</v>
+        <v>64.04651393712778</v>
       </c>
       <c r="O7" t="n">
-        <v>7.977156381022373</v>
+        <v>8.002906593052789</v>
       </c>
       <c r="P7" t="n">
-        <v>371.710649387809</v>
+        <v>371.7123628913527</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25367,7 +25605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49225,6 +49463,254 @@
         </is>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-36.67209226984278,174.74764651763022</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-36.67279000067294,174.74717713125418</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-36.67349902065048,174.7473560178967</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-36.67420811506766,174.7475153122345</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-36.67490455697143,174.74774430077235</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-36.67136640069613,174.7474121766831</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-36.67207505705332,174.74735230913043</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-36.67278013966025,174.74731528192018</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-36.67348264392313,174.74746326153044</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-36.674166356566694,174.7477341351468</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-36.674870050278805,174.74790212017314</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-36.67137618186141,174.74749386887407</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-36.67207220196625,174.74730350995546</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-36.67278253930291,174.74728166365225</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-36.67349520878191,174.74738098012594</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-36.674195940739644,174.74757910839318</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-36.674892821542635,174.7477979739128</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-36.67136846322532,174.74742940286453</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-36.672072151915,174.74730265448213</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-36.67277994874903,174.7473179565226</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-36.6734875316202,174.74743125432735</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-36.674173503323324,174.74769668487522</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-36.67485293850577,174.74798038197147</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-36.67138088840134,174.7475331780219</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-36.67207270900681,174.74731217627215</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-36.67277980821714,174.74731992532716</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-36.6734835488268,174.74745733575136</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-36.67417973595045,174.74766402474862</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-36.67486858441587,174.74790882440237</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-36.67136906240355,174.7474344071872</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-36.67207263284197,174.74731087446494</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-36.672782952942015,174.74727586867985</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-36.673488659314316,174.74742386958647</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-36.67419085078024,174.74760578084226</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-36.67483358387696,174.74806890129238</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H643"/>
+  <dimension ref="A1:H645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18279,6 +18279,66 @@
         <v>389.5572727272727</v>
       </c>
       <c r="H643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>368.5288888888889</v>
+      </c>
+      <c r="C644" t="n">
+        <v>371.2666666666667</v>
+      </c>
+      <c r="D644" t="n">
+        <v>375.8433333333333</v>
+      </c>
+      <c r="E644" t="n">
+        <v>369.2145454545454</v>
+      </c>
+      <c r="F644" t="n">
+        <v>383.37</v>
+      </c>
+      <c r="G644" t="n">
+        <v>386.8745454545455</v>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>374.5133333333333</v>
+      </c>
+      <c r="C645" t="n">
+        <v>370.32</v>
+      </c>
+      <c r="D645" t="n">
+        <v>371.23</v>
+      </c>
+      <c r="E645" t="n">
+        <v>364.6718181818182</v>
+      </c>
+      <c r="F645" t="n">
+        <v>369.52</v>
+      </c>
+      <c r="G645" t="n">
+        <v>368.6918181818182</v>
+      </c>
+      <c r="H645" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18295,7 +18355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B668"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24983,6 +25043,26 @@
       </c>
       <c r="B668" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -25156,28 +25236,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00516354512280057</v>
+        <v>0.006435176385968954</v>
       </c>
       <c r="J2" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K2" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L2" t="n">
-        <v>2.153066340460086e-05</v>
+        <v>3.367252048769309e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.051741745659523</v>
+        <v>6.039676252302732</v>
       </c>
       <c r="N2" t="n">
-        <v>68.98683103454179</v>
+        <v>68.76954632584035</v>
       </c>
       <c r="O2" t="n">
-        <v>8.305831146522412</v>
+        <v>8.292740579919304</v>
       </c>
       <c r="P2" t="n">
-        <v>369.6157918596093</v>
+        <v>369.6031288962409</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25234,28 +25314,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00501138730711504</v>
+        <v>0.005890744335041539</v>
       </c>
       <c r="J3" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K3" t="n">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726212905972524e-05</v>
+        <v>2.403757586488808e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.723676224405296</v>
+        <v>6.702727628277127</v>
       </c>
       <c r="N3" t="n">
-        <v>80.1623704037396</v>
+        <v>79.86211204797841</v>
       </c>
       <c r="O3" t="n">
-        <v>8.953344090547375</v>
+        <v>8.936560414834021</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4652678037262</v>
+        <v>369.456524837936</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25312,28 +25392,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05904384421385874</v>
+        <v>-0.05496254824455021</v>
       </c>
       <c r="J4" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K4" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002986343769826427</v>
+        <v>0.002603293612981616</v>
       </c>
       <c r="M4" t="n">
-        <v>6.050288693507957</v>
+        <v>6.047846284404208</v>
       </c>
       <c r="N4" t="n">
-        <v>64.20401470351855</v>
+        <v>64.09635789508256</v>
       </c>
       <c r="O4" t="n">
-        <v>8.012740773513052</v>
+        <v>8.006020103339896</v>
       </c>
       <c r="P4" t="n">
-        <v>369.4724543985351</v>
+        <v>369.4317548784672</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25390,28 +25470,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02752944818393281</v>
+        <v>0.02657711484243411</v>
       </c>
       <c r="J5" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K5" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007797593476749354</v>
+        <v>0.0007320868128001257</v>
       </c>
       <c r="M5" t="n">
-        <v>5.446380427333462</v>
+        <v>5.434306629698603</v>
       </c>
       <c r="N5" t="n">
-        <v>54.3340691948046</v>
+        <v>54.14961189987321</v>
       </c>
       <c r="O5" t="n">
-        <v>7.371164710871994</v>
+        <v>7.358641987477935</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5358442524774</v>
+        <v>367.5452755480909</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25468,28 +25548,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04005094747306201</v>
+        <v>0.04427119711561185</v>
       </c>
       <c r="J6" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K6" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001426581090010259</v>
+        <v>0.001746858636190285</v>
       </c>
       <c r="M6" t="n">
-        <v>5.972266597778875</v>
+        <v>5.974956687536872</v>
       </c>
       <c r="N6" t="n">
-        <v>60.93520385562301</v>
+        <v>61.01371805518144</v>
       </c>
       <c r="O6" t="n">
-        <v>7.806100425668569</v>
+        <v>7.811127835030063</v>
       </c>
       <c r="P6" t="n">
-        <v>369.5778624298165</v>
+        <v>369.535114437341</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25546,28 +25626,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0914858382320126</v>
+        <v>0.09414649299686366</v>
       </c>
       <c r="J7" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="K7" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007115717171214175</v>
+        <v>0.007546162773772846</v>
       </c>
       <c r="M7" t="n">
-        <v>6.037573943316982</v>
+        <v>6.05006962905979</v>
       </c>
       <c r="N7" t="n">
-        <v>64.04651393712778</v>
+        <v>64.16893032315052</v>
       </c>
       <c r="O7" t="n">
-        <v>8.002906593052789</v>
+        <v>8.010551187224916</v>
       </c>
       <c r="P7" t="n">
-        <v>371.7123628913527</v>
+        <v>371.6856106353857</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25605,7 +25685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H643"/>
+  <dimension ref="A1:H645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42327,7 +42407,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>-36.67417896726025,174.74766805283122</t>
+          <t>-36.67417896726024,174.74766805283122</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -43310,7 +43390,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>-36.67485966045749,174.74794963872333</t>
+          <t>-36.6748596604575,174.74794963872333</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -45125,7 +45205,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>-36.67417896726025,174.74766805283122</t>
+          <t>-36.67417896726024,174.74766805283122</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -49711,6 +49791,90 @@
         </is>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-36.67137189046309,174.7474580270993</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-36.67207473716271,174.7473468415398</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-36.672774961172685,174.7473878305054</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-36.673483477105925,174.74745780541684</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-36.67415777628831,174.74777909723636</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-36.67483991738482,174.7480399347289</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-36.67137981960425,174.74752425138993</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-36.672074119142025,174.7473362783036</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-36.6727786309298,174.74733641870836</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-36.6734911023957,174.7474078709792</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-36.67418655027932,174.74762831633714</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-36.674882843834006,174.74784360784767</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H645"/>
+  <dimension ref="A1:H646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18341,6 +18341,36 @@
       <c r="H645" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>367.19</v>
+      </c>
+      <c r="C646" t="n">
+        <v>367.27</v>
+      </c>
+      <c r="D646" t="n">
+        <v>368.09</v>
+      </c>
+      <c r="E646" t="n">
+        <v>367.6872727272727</v>
+      </c>
+      <c r="F646" t="n">
+        <v>375.16</v>
+      </c>
+      <c r="G646" t="n">
+        <v>384.3172727272727</v>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18355,7 +18385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25063,6 +25093,16 @@
       </c>
       <c r="B670" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -25236,28 +25276,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006435176385968954</v>
+        <v>0.00551384063150653</v>
       </c>
       <c r="J2" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K2" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L2" t="n">
-        <v>3.367252048769309e-05</v>
+        <v>2.48098115211981e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.039676252302732</v>
+        <v>6.033334645530417</v>
       </c>
       <c r="N2" t="n">
-        <v>68.76954632584035</v>
+        <v>68.65115585830202</v>
       </c>
       <c r="O2" t="n">
-        <v>8.292740579919304</v>
+        <v>8.285599305922416</v>
       </c>
       <c r="P2" t="n">
-        <v>369.6031288962409</v>
+        <v>369.6123102882459</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25314,28 +25354,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005890744335041539</v>
+        <v>0.005035118103033216</v>
       </c>
       <c r="J3" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K3" t="n">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L3" t="n">
-        <v>2.403757586488808e-05</v>
+        <v>1.762833024943067e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.702727628277127</v>
+        <v>6.694199424675348</v>
       </c>
       <c r="N3" t="n">
-        <v>79.86211204797841</v>
+        <v>79.72007944074683</v>
       </c>
       <c r="O3" t="n">
-        <v>8.936560414834021</v>
+        <v>8.928610162883517</v>
       </c>
       <c r="P3" t="n">
-        <v>369.456524837936</v>
+        <v>369.4650474374274</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25392,28 +25432,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05496254824455021</v>
+        <v>-0.05493465909280317</v>
       </c>
       <c r="J4" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K4" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002603293612981616</v>
+        <v>0.002610698896920005</v>
       </c>
       <c r="M4" t="n">
-        <v>6.047846284404208</v>
+        <v>6.036401602691463</v>
       </c>
       <c r="N4" t="n">
-        <v>64.09635789508256</v>
+        <v>63.97357908754241</v>
       </c>
       <c r="O4" t="n">
-        <v>8.006020103339896</v>
+        <v>7.998348522510282</v>
       </c>
       <c r="P4" t="n">
-        <v>369.4317548784672</v>
+        <v>369.4314762444081</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25470,28 +25510,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02657711484243411</v>
+        <v>0.02637914890537977</v>
       </c>
       <c r="J5" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K5" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007320868128001257</v>
+        <v>0.0007240108444256377</v>
       </c>
       <c r="M5" t="n">
-        <v>5.434306629698603</v>
+        <v>5.424881888714981</v>
       </c>
       <c r="N5" t="n">
-        <v>54.14961189987321</v>
+        <v>54.04524058416522</v>
       </c>
       <c r="O5" t="n">
-        <v>7.358641987477935</v>
+        <v>7.351546815750085</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5452755480909</v>
+        <v>367.5472374397446</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25548,28 +25588,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04427119711561185</v>
+        <v>0.04589017799902032</v>
       </c>
       <c r="J6" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K6" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001746858636190285</v>
+        <v>0.001882628618091853</v>
       </c>
       <c r="M6" t="n">
-        <v>5.974956687536872</v>
+        <v>5.971743296677606</v>
       </c>
       <c r="N6" t="n">
-        <v>61.01371805518144</v>
+        <v>60.93600121458009</v>
       </c>
       <c r="O6" t="n">
-        <v>7.811127835030063</v>
+        <v>7.806151498310809</v>
       </c>
       <c r="P6" t="n">
-        <v>369.535114437341</v>
+        <v>369.5186780111197</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25626,28 +25666,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09414649299686366</v>
+        <v>0.09780203919624945</v>
       </c>
       <c r="J7" t="n">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K7" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007546162773772846</v>
+        <v>0.008144311686316019</v>
       </c>
       <c r="M7" t="n">
-        <v>6.05006962905979</v>
+        <v>6.059272452648218</v>
       </c>
       <c r="N7" t="n">
-        <v>64.16893032315052</v>
+        <v>64.24342161298401</v>
       </c>
       <c r="O7" t="n">
-        <v>8.010551187224916</v>
+        <v>8.015199411928814</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6856106353857</v>
+        <v>371.648744462565</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25685,7 +25725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H645"/>
+  <dimension ref="A1:H646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49875,6 +49915,48 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-36.67137011648563,174.74744321086067</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-36.67207212797745,174.74730224534272</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-36.672781128685386,174.74730142599347</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-36.67348604074378,174.74744101737414</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-36.67417483295119,174.747689717382</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-36.67484595470727,174.7480123227476</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H646"/>
+  <dimension ref="A1:H650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18371,6 +18371,114 @@
       <c r="H646" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="n">
+        <v>394.03</v>
+      </c>
+      <c r="D647" t="n">
+        <v>386.76</v>
+      </c>
+      <c r="E647" t="n">
+        <v>373.9163636363636</v>
+      </c>
+      <c r="F647" t="n">
+        <v>364.96</v>
+      </c>
+      <c r="G647" t="n">
+        <v>374.9463636363636</v>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>367.4066666666667</v>
+      </c>
+      <c r="C648" t="n">
+        <v>375.13</v>
+      </c>
+      <c r="D648" t="n">
+        <v>403.64</v>
+      </c>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>351.3977777777778</v>
+      </c>
+      <c r="C649" t="n">
+        <v>350.3433333333333</v>
+      </c>
+      <c r="D649" t="n">
+        <v>347.0666666666667</v>
+      </c>
+      <c r="E649" t="n">
+        <v>357.2054545454546</v>
+      </c>
+      <c r="F649" t="n">
+        <v>372.32</v>
+      </c>
+      <c r="G649" t="n">
+        <v>378.3654545454546</v>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="n">
+        <v>382.5766666666667</v>
+      </c>
+      <c r="D650" t="n">
+        <v>366.2033333333333</v>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="n">
+        <v>410.38</v>
+      </c>
+      <c r="G650" t="n">
+        <v>366.9481818181818</v>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25103,6 +25211,46 @@
       </c>
       <c r="B671" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -25276,28 +25424,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00551384063150653</v>
+        <v>-0.001856686726248185</v>
       </c>
       <c r="J2" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K2" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L2" t="n">
-        <v>2.48098115211981e-05</v>
+        <v>2.808013617516814e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>6.033334645530417</v>
+        <v>6.051378784604349</v>
       </c>
       <c r="N2" t="n">
-        <v>68.65115585830202</v>
+        <v>69.03593471864163</v>
       </c>
       <c r="O2" t="n">
-        <v>8.285599305922416</v>
+        <v>8.308786597250023</v>
       </c>
       <c r="P2" t="n">
-        <v>369.6123102882459</v>
+        <v>369.6860672726043</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25354,28 +25502,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005035118103033216</v>
+        <v>0.0135227045462116</v>
       </c>
       <c r="J3" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K3" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L3" t="n">
-        <v>1.762833024943067e-05</v>
+        <v>0.000125624177524597</v>
       </c>
       <c r="M3" t="n">
-        <v>6.694199424675348</v>
+        <v>6.762749906856356</v>
       </c>
       <c r="N3" t="n">
-        <v>79.72007944074683</v>
+        <v>81.32004775937884</v>
       </c>
       <c r="O3" t="n">
-        <v>8.928610162883517</v>
+        <v>9.017762902149226</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4650474374274</v>
+        <v>369.3804317821615</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25432,28 +25580,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05493465909280317</v>
+        <v>-0.04367211559150857</v>
       </c>
       <c r="J4" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K4" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002610698896920005</v>
+        <v>0.001579885523373292</v>
       </c>
       <c r="M4" t="n">
-        <v>6.036401602691463</v>
+        <v>6.135759392512304</v>
       </c>
       <c r="N4" t="n">
-        <v>63.97357908754241</v>
+        <v>67.3978352623036</v>
       </c>
       <c r="O4" t="n">
-        <v>7.998348522510282</v>
+        <v>8.209618460215042</v>
       </c>
       <c r="P4" t="n">
-        <v>369.4314762444081</v>
+        <v>369.3189836267154</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25510,28 +25658,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02637914890537977</v>
+        <v>0.02442945383293067</v>
       </c>
       <c r="J5" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K5" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007240108444256377</v>
+        <v>0.0006223832919788341</v>
       </c>
       <c r="M5" t="n">
-        <v>5.424881888714981</v>
+        <v>5.436722819562955</v>
       </c>
       <c r="N5" t="n">
-        <v>54.04524058416522</v>
+        <v>54.13335209418551</v>
       </c>
       <c r="O5" t="n">
-        <v>7.351546815750085</v>
+        <v>7.357537094312574</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5472374397446</v>
+        <v>367.5667158979822</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25588,28 +25736,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04589017799902032</v>
+        <v>0.05866063290424621</v>
       </c>
       <c r="J6" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K6" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001882628618091853</v>
+        <v>0.002960411557399234</v>
       </c>
       <c r="M6" t="n">
-        <v>5.971743296677606</v>
+        <v>6.023551119162603</v>
       </c>
       <c r="N6" t="n">
-        <v>60.93600121458009</v>
+        <v>63.60931729759935</v>
       </c>
       <c r="O6" t="n">
-        <v>7.806151498310809</v>
+        <v>7.975544953017277</v>
       </c>
       <c r="P6" t="n">
-        <v>369.5186780111197</v>
+        <v>369.3882397648526</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25666,28 +25814,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09780203919624945</v>
+        <v>0.096985399267388</v>
       </c>
       <c r="J7" t="n">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K7" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008144311686316019</v>
+        <v>0.008083141879610012</v>
       </c>
       <c r="M7" t="n">
-        <v>6.059272452648218</v>
+        <v>6.047714380862789</v>
       </c>
       <c r="N7" t="n">
-        <v>64.24342161298401</v>
+        <v>64.01308413163075</v>
       </c>
       <c r="O7" t="n">
-        <v>8.015199411928814</v>
+        <v>8.000817716435661</v>
       </c>
       <c r="P7" t="n">
-        <v>371.648744462565</v>
+        <v>371.6570543646858</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25725,7 +25873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H646"/>
+  <dimension ref="A1:H650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49957,6 +50105,150 @@
         </is>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr"/>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-36.672089597664986,174.74760084277682</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-36.67276627723028,174.7475094877333</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-36.673475584749006,174.74750948859776</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-36.674196023840985,174.7475786729246</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-36.67486807790971,174.74791114094418</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-36.67137040356095,174.7474456085092</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-36.67207725928662,174.74738994995937</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-36.672752849358105,174.74769760131906</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-36.671349192244236,174.7472684530644</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-36.67206107738037,174.74711337173326</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-36.67279785171747,174.7470671381826</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-36.67350363517139,174.74732579940584</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-36.67418073316997,174.74765879912783</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-36.67486000599824,174.747948058371</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-36.67208212069604,174.7474730424671</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-36.67278262945505,174.74728040064545</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-36.67410166127067,174.74807314686217</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-36.674886960257936,174.74782478102898</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H650"/>
+  <dimension ref="A1:H654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18477,6 +18477,126 @@
         <v>366.9481818181818</v>
       </c>
       <c r="H650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>354.7411111111111</v>
+      </c>
+      <c r="C651" t="n">
+        <v>362.1833333333333</v>
+      </c>
+      <c r="D651" t="n">
+        <v>361.4666666666667</v>
+      </c>
+      <c r="E651" t="n">
+        <v>363.9554545454546</v>
+      </c>
+      <c r="F651" t="n">
+        <v>365.51</v>
+      </c>
+      <c r="G651" t="n">
+        <v>372.4654545454546</v>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>372.1066666666667</v>
+      </c>
+      <c r="C652" t="n">
+        <v>373.57</v>
+      </c>
+      <c r="D652" t="n">
+        <v>365.41</v>
+      </c>
+      <c r="E652" t="n">
+        <v>367.129090909091</v>
+      </c>
+      <c r="F652" t="n">
+        <v>367.69</v>
+      </c>
+      <c r="G652" t="n">
+        <v>372.7990909090909</v>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>359.4</v>
+      </c>
+      <c r="C653" t="n">
+        <v>359.14</v>
+      </c>
+      <c r="D653" t="n">
+        <v>364.19</v>
+      </c>
+      <c r="E653" t="n">
+        <v>362.1463636363636</v>
+      </c>
+      <c r="F653" t="n">
+        <v>367.16</v>
+      </c>
+      <c r="G653" t="n">
+        <v>371.0463636363637</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>370.5988888888889</v>
+      </c>
+      <c r="C654" t="n">
+        <v>369.0766666666667</v>
+      </c>
+      <c r="D654" t="n">
+        <v>369.5133333333333</v>
+      </c>
+      <c r="E654" t="n">
+        <v>365.2263636363636</v>
+      </c>
+      <c r="F654" t="n">
+        <v>367.24</v>
+      </c>
+      <c r="G654" t="n">
+        <v>378.5163636363636</v>
+      </c>
+      <c r="H654" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18493,7 +18613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B675"/>
+  <dimension ref="A1:B679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25251,6 +25371,46 @@
       </c>
       <c r="B675" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -25424,28 +25584,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001856686726248185</v>
+        <v>-0.009450262184767001</v>
       </c>
       <c r="J2" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K2" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L2" t="n">
-        <v>2.808013617516814e-06</v>
+        <v>7.317144812946097e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.051378784604349</v>
+        <v>6.062055611901185</v>
       </c>
       <c r="N2" t="n">
-        <v>69.03593471864163</v>
+        <v>69.13947849750031</v>
       </c>
       <c r="O2" t="n">
-        <v>8.308786597250023</v>
+        <v>8.315015243371494</v>
       </c>
       <c r="P2" t="n">
-        <v>369.6860672726043</v>
+        <v>369.762265818155</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25502,28 +25662,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0135227045462116</v>
+        <v>0.008225028699583452</v>
       </c>
       <c r="J3" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K3" t="n">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000125624177524597</v>
+        <v>4.699293222398815e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.762749906856356</v>
+        <v>6.753220099899066</v>
       </c>
       <c r="N3" t="n">
-        <v>81.32004775937884</v>
+        <v>81.05270043081917</v>
       </c>
       <c r="O3" t="n">
-        <v>9.017762902149226</v>
+        <v>9.002927325643542</v>
       </c>
       <c r="P3" t="n">
-        <v>369.3804317821615</v>
+        <v>369.4335758817737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25580,28 +25740,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04367211559150857</v>
+        <v>-0.04796181292956685</v>
       </c>
       <c r="J4" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K4" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001579885523373292</v>
+        <v>0.001930016700562587</v>
       </c>
       <c r="M4" t="n">
-        <v>6.135759392512304</v>
+        <v>6.117402043506837</v>
       </c>
       <c r="N4" t="n">
-        <v>67.3978352623036</v>
+        <v>67.02079880793319</v>
       </c>
       <c r="O4" t="n">
-        <v>8.209618460215042</v>
+        <v>8.18662316269249</v>
       </c>
       <c r="P4" t="n">
-        <v>369.3189836267154</v>
+        <v>369.3621261440385</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25658,28 +25818,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02442945383293067</v>
+        <v>0.019316431977583</v>
       </c>
       <c r="J5" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006223832919788341</v>
+        <v>0.0003943277690440228</v>
       </c>
       <c r="M5" t="n">
-        <v>5.436722819562955</v>
+        <v>5.423378552859035</v>
       </c>
       <c r="N5" t="n">
-        <v>54.13335209418551</v>
+        <v>53.84018121558792</v>
       </c>
       <c r="O5" t="n">
-        <v>7.357537094312574</v>
+        <v>7.337586879593857</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5667158979822</v>
+        <v>367.6177538975884</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25736,28 +25896,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05866063290424621</v>
+        <v>0.05301549825442898</v>
       </c>
       <c r="J6" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K6" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002960411557399234</v>
+        <v>0.00245078125918341</v>
       </c>
       <c r="M6" t="n">
-        <v>6.023551119162603</v>
+        <v>6.009025068531788</v>
       </c>
       <c r="N6" t="n">
-        <v>63.60931729759935</v>
+        <v>63.25642670269141</v>
       </c>
       <c r="O6" t="n">
-        <v>7.975544953017277</v>
+        <v>7.953390893366892</v>
       </c>
       <c r="P6" t="n">
-        <v>369.3882397648526</v>
+        <v>369.4459470500581</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25814,28 +25974,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.096985399267388</v>
+        <v>0.09633566185155557</v>
       </c>
       <c r="J7" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K7" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008083141879610012</v>
+        <v>0.008086109222434357</v>
       </c>
       <c r="M7" t="n">
-        <v>6.047714380862789</v>
+        <v>6.021954587480575</v>
       </c>
       <c r="N7" t="n">
-        <v>64.01308413163075</v>
+        <v>63.59693964126704</v>
       </c>
       <c r="O7" t="n">
-        <v>8.000817716435661</v>
+        <v>7.974768939678882</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6570543646858</v>
+        <v>371.6636428010672</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25873,7 +26033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H650"/>
+  <dimension ref="A1:H654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50249,6 +50409,174 @@
         </is>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-36.67135362208662,174.74730545060953</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-36.67206880717194,174.74724548654982</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-36.672786397272155,174.74722761438755</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-36.67349230486096,174.7473999965862</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-36.674194881197565,174.7475846606176</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-36.67487393492111,174.74788435347355</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-36.67137663087502,174.74749761904286</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-36.672076240864016,174.7473725429355</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-36.67278326051963,174.74727155959775</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-36.6734869776918,174.74743488174397</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-36.67419035217164,174.7476083936534</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-36.674873147261806,174.7478879558929</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-36.6713597949915,174.7473570061847</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-36.67206682033362,174.7472115279816</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-36.67278423097903,174.74725796370055</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-36.67349534154123,174.7473801107449</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-36.674191453265536,174.74760262369543</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-36.67487728515471,174.74786903092064</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-36.67137463313161,174.7474809338661</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-36.672073307444435,174.74732240475763</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-36.67277999647685,174.747317287872</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-36.673490171552956,174.7474139666386</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-36.674191287062705,174.7476034946325</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-36.674859649726436,174.7479496878026</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H654"/>
+  <dimension ref="A1:H657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18599,6 +18599,88 @@
       <c r="H654" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>362.5777777777778</v>
+      </c>
+      <c r="C655" t="n">
+        <v>363.2333333333333</v>
+      </c>
+      <c r="D655" t="n">
+        <v>359.5766666666667</v>
+      </c>
+      <c r="E655" t="n">
+        <v>360.64</v>
+      </c>
+      <c r="F655" t="n">
+        <v>362.93</v>
+      </c>
+      <c r="G655" t="n">
+        <v>370.68</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>366.2911111111111</v>
+      </c>
+      <c r="C656" t="n">
+        <v>363.7733333333334</v>
+      </c>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>372.1588888888889</v>
+      </c>
+      <c r="C657" t="n">
+        <v>374.0366666666667</v>
+      </c>
+      <c r="D657" t="n">
+        <v>366.0033333333333</v>
+      </c>
+      <c r="E657" t="n">
+        <v>365.9972727272727</v>
+      </c>
+      <c r="F657" t="n">
+        <v>365.13</v>
+      </c>
+      <c r="G657" t="n">
+        <v>371.9772727272728</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18613,7 +18695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25411,6 +25493,36 @@
       </c>
       <c r="B679" t="n">
         <v>0.53</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -25584,28 +25696,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.009450262184767001</v>
+        <v>-0.01205044752156438</v>
       </c>
       <c r="J2" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K2" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L2" t="n">
-        <v>7.317144812946097e-05</v>
+        <v>0.0001200837200691085</v>
       </c>
       <c r="M2" t="n">
-        <v>6.062055611901185</v>
+        <v>6.052947732914078</v>
       </c>
       <c r="N2" t="n">
-        <v>69.13947849750031</v>
+        <v>68.87319222529031</v>
       </c>
       <c r="O2" t="n">
-        <v>8.315015243371494</v>
+        <v>8.298987421685268</v>
       </c>
       <c r="P2" t="n">
-        <v>369.762265818155</v>
+        <v>369.788424246483</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25662,28 +25774,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008225028699583452</v>
+        <v>0.005462915335862941</v>
       </c>
       <c r="J3" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K3" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L3" t="n">
-        <v>4.699293222398815e-05</v>
+        <v>2.092062401815031e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.753220099899066</v>
+        <v>6.745805821201178</v>
       </c>
       <c r="N3" t="n">
-        <v>81.05270043081917</v>
+        <v>80.77495071810472</v>
       </c>
       <c r="O3" t="n">
-        <v>9.002927325643542</v>
+        <v>8.9874885656731</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4335758817737</v>
+        <v>369.4613410340379</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25740,28 +25852,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04796181292956685</v>
+        <v>-0.05169947977447243</v>
       </c>
       <c r="J4" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K4" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001930016700562587</v>
+        <v>0.00225380476739323</v>
       </c>
       <c r="M4" t="n">
-        <v>6.117402043506837</v>
+        <v>6.114464692134634</v>
       </c>
       <c r="N4" t="n">
-        <v>67.02079880793319</v>
+        <v>66.91305880612016</v>
       </c>
       <c r="O4" t="n">
-        <v>8.18662316269249</v>
+        <v>8.180040269223628</v>
       </c>
       <c r="P4" t="n">
-        <v>369.3621261440385</v>
+        <v>369.3998471321742</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25818,28 +25930,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.019316431977583</v>
+        <v>0.01591286255202038</v>
       </c>
       <c r="J5" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K5" t="n">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003943277690440228</v>
+        <v>0.0002691091151907354</v>
       </c>
       <c r="M5" t="n">
-        <v>5.423378552859035</v>
+        <v>5.421463984066975</v>
       </c>
       <c r="N5" t="n">
-        <v>53.84018121558792</v>
+        <v>53.74906650780539</v>
       </c>
       <c r="O5" t="n">
-        <v>7.337586879593857</v>
+        <v>7.331375485391905</v>
       </c>
       <c r="P5" t="n">
-        <v>367.6177538975884</v>
+        <v>367.6518324439361</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25896,28 +26008,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05301549825442898</v>
+        <v>0.0482523528952405</v>
       </c>
       <c r="J6" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00245078125918341</v>
+        <v>0.002040413664171958</v>
       </c>
       <c r="M6" t="n">
-        <v>6.009025068531788</v>
+        <v>6.012298302611127</v>
       </c>
       <c r="N6" t="n">
-        <v>63.25642670269141</v>
+        <v>63.19541726953913</v>
       </c>
       <c r="O6" t="n">
-        <v>7.953390893366892</v>
+        <v>7.949554532773464</v>
       </c>
       <c r="P6" t="n">
-        <v>369.4459470500581</v>
+        <v>369.4948137049316</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25974,28 +26086,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09633566185155557</v>
+        <v>0.09435965167846527</v>
       </c>
       <c r="J7" t="n">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K7" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008086109222434357</v>
+        <v>0.007813231591186742</v>
       </c>
       <c r="M7" t="n">
-        <v>6.021954587480575</v>
+        <v>6.009238909814913</v>
       </c>
       <c r="N7" t="n">
-        <v>63.59693964126704</v>
+        <v>63.39138108822825</v>
       </c>
       <c r="O7" t="n">
-        <v>7.974768939678882</v>
+        <v>7.961870451610491</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6636428010672</v>
+        <v>371.6837819989505</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26033,7 +26145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H654"/>
+  <dimension ref="A1:H657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50577,6 +50689,116 @@
         </is>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-36.6713640054503,174.74739217168974</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-36.67206949266154,174.74725720281413</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-36.67278790068036,174.74720655188887</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-36.673497870071,174.74736355253305</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-36.674200241231375,174.74755657289248</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-36.67487815007699,174.74786507513</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-36.6713689254906,174.74743326369332</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-36.6720698451986,174.74726322832151</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:11:56+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-36.67137670006726,174.7474981969377</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-36.67207654552062,174.74737775016484</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-36.67278278854702,174.7472781718099</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-36.67348887752843,174.7474224406041</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-36.67419567066032,174.74758052366607</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-36.674875087436014,174.74787908235842</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H657"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18679,6 +18679,36 @@
         <v>371.9772727272728</v>
       </c>
       <c r="H657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>367.2377777777778</v>
+      </c>
+      <c r="C658" t="n">
+        <v>362.7633333333333</v>
+      </c>
+      <c r="D658" t="n">
+        <v>362.5666666666667</v>
+      </c>
+      <c r="E658" t="n">
+        <v>361.4454545454545</v>
+      </c>
+      <c r="F658" t="n">
+        <v>359.34</v>
+      </c>
+      <c r="G658" t="n">
+        <v>363.8154545454545</v>
+      </c>
+      <c r="H658" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18695,7 +18725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B682"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25523,6 +25553,16 @@
       </c>
       <c r="B682" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>-0.74</v>
       </c>
     </row>
   </sheetData>
@@ -26145,7 +26185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H657"/>
+  <dimension ref="A1:H658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50799,6 +50839,48 @@
         </is>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:06:15+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-36.67137017978943,174.7474437395729</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-36.672069185823474,174.74725195839105</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-36.67278552227097,174.74723987298424</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-36.67349651806321,174.74737240623006</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-36.674207699562125,174.74751748957817</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-36.674894356077935,174.74779095557153</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -25736,28 +25736,28 @@
         <v>0.0994</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.01205044752156438</v>
+        <v>-0.01282480309065702</v>
       </c>
       <c r="J2" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001200837200691085</v>
+        <v>0.0001364924518968413</v>
       </c>
       <c r="M2" t="n">
-        <v>6.052947732914078</v>
+        <v>6.046077459899577</v>
       </c>
       <c r="N2" t="n">
-        <v>68.87319222529031</v>
+        <v>68.75375522127825</v>
       </c>
       <c r="O2" t="n">
-        <v>8.298987421685268</v>
+        <v>8.291788421159712</v>
       </c>
       <c r="P2" t="n">
-        <v>369.788424246483</v>
+        <v>369.7962439186099</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25814,28 +25814,28 @@
         <v>0.0883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005462915335862941</v>
+        <v>0.003067312422267413</v>
       </c>
       <c r="J3" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L3" t="n">
-        <v>2.092062401815031e-05</v>
+        <v>6.613119484688568e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>6.745805821201178</v>
+        <v>6.745288015049465</v>
       </c>
       <c r="N3" t="n">
-        <v>80.77495071810472</v>
+        <v>80.71105976698708</v>
       </c>
       <c r="O3" t="n">
-        <v>8.9874885656731</v>
+        <v>8.98393342400683</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4613410340379</v>
+        <v>369.4855137891634</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25892,28 +25892,28 @@
         <v>0.0672</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05169947977447243</v>
+        <v>-0.0536250234214237</v>
       </c>
       <c r="J4" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K4" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00225380476739323</v>
+        <v>0.002431412871833016</v>
       </c>
       <c r="M4" t="n">
-        <v>6.114464692134634</v>
+        <v>6.113358864491017</v>
       </c>
       <c r="N4" t="n">
-        <v>66.91305880612016</v>
+        <v>66.84365827898206</v>
       </c>
       <c r="O4" t="n">
-        <v>8.180040269223628</v>
+        <v>8.175797103584584</v>
       </c>
       <c r="P4" t="n">
-        <v>369.3998471321742</v>
+        <v>369.4193379840819</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25970,28 +25970,28 @@
         <v>0.056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01591286255202038</v>
+        <v>0.01356665493811249</v>
       </c>
       <c r="J5" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K5" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002691091151907354</v>
+        <v>0.0001960570786373461</v>
       </c>
       <c r="M5" t="n">
-        <v>5.421463984066975</v>
+        <v>5.424034098188891</v>
       </c>
       <c r="N5" t="n">
-        <v>53.74906650780539</v>
+        <v>53.72971796300513</v>
       </c>
       <c r="O5" t="n">
-        <v>7.331375485391905</v>
+        <v>7.330055795354162</v>
       </c>
       <c r="P5" t="n">
-        <v>367.6518324439361</v>
+        <v>367.6753936350084</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26048,28 +26048,28 @@
         <v>0.0521</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0482523528952405</v>
+        <v>0.04425564820273937</v>
       </c>
       <c r="J6" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K6" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002040413664171958</v>
+        <v>0.001716738004742147</v>
       </c>
       <c r="M6" t="n">
-        <v>6.012298302611127</v>
+        <v>6.022539913315973</v>
       </c>
       <c r="N6" t="n">
-        <v>63.19541726953913</v>
+        <v>63.31871170203362</v>
       </c>
       <c r="O6" t="n">
-        <v>7.949554532773464</v>
+        <v>7.957305555402131</v>
       </c>
       <c r="P6" t="n">
-        <v>369.4948137049316</v>
+        <v>369.5359185496146</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26126,28 +26126,28 @@
         <v>0.0588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09435965167846527</v>
+        <v>0.09077101081545962</v>
       </c>
       <c r="J7" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K7" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007813231591186742</v>
+        <v>0.0072384060029268</v>
       </c>
       <c r="M7" t="n">
-        <v>6.009238909814913</v>
+        <v>6.01577198319545</v>
       </c>
       <c r="N7" t="n">
-        <v>63.39138108822825</v>
+        <v>63.47072856885037</v>
       </c>
       <c r="O7" t="n">
-        <v>7.961870451610491</v>
+        <v>7.96685186060657</v>
       </c>
       <c r="P7" t="n">
-        <v>371.6837819989505</v>
+        <v>371.7204510373518</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0149/nzd0149.xlsx
+++ b/data/nzd0149/nzd0149.xlsx
@@ -25727,13 +25727,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.0858</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0994</v>
+        <v>0.1251</v>
       </c>
       <c r="I2" t="n">
         <v>-0.01278722464843831</v>
@@ -25805,13 +25805,13 @@
         <v>0.1990336621200472</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.068</v>
+        <v>0.0718</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0883</v>
+        <v>0.0927</v>
       </c>
       <c r="I3" t="n">
         <v>0.003073340566340061</v>
@@ -25883,13 +25883,13 @@
         <v>0.399163327302304</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0586</v>
+        <v>0.052</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0672</v>
+        <v>0.0608</v>
       </c>
       <c r="I4" t="n">
         <v>-0.05362697233773324</v>
@@ -25961,13 +25961,13 @@
         <v>0.5995441055291313</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0514</v>
+        <v>0.0463</v>
       </c>
       <c r="H5" t="n">
-        <v>0.056</v>
+        <v>0.0518</v>
       </c>
       <c r="I5" t="n">
         <v>0.01358901277222678</v>
@@ -26039,13 +26039,13 @@
         <v>0.799776789798109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0493</v>
+        <v>0.06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0521</v>
+        <v>0.0674</v>
       </c>
       <c r="I6" t="n">
         <v>0.04425564820273948</v>
@@ -26117,13 +26117,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.054</v>
+        <v>0.0664</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0588</v>
+        <v>0.0747</v>
       </c>
       <c r="I7" t="n">
         <v>0.09079390489334065</v>
